--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl3-Ccr5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl3-Ccr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G2">
+        <v>0.07287233333333333</v>
+      </c>
+      <c r="H2">
+        <v>0.218617</v>
+      </c>
+      <c r="I2">
+        <v>0.0006119733110023554</v>
+      </c>
+      <c r="J2">
+        <v>0.0006119733110023554</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>998.7379113333335</v>
-      </c>
-      <c r="H2">
-        <v>2996.213734</v>
-      </c>
-      <c r="I2">
-        <v>0.8754681532218018</v>
-      </c>
-      <c r="J2">
-        <v>0.8754681532218019</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>4.021407666666667</v>
+        <v>0.022105</v>
       </c>
       <c r="N2">
-        <v>12.064223</v>
+        <v>0.066315</v>
       </c>
       <c r="O2">
-        <v>0.06269882270324605</v>
+        <v>0.0007557226718989593</v>
       </c>
       <c r="P2">
-        <v>0.06269882270324605</v>
+        <v>0.0007557226718989592</v>
       </c>
       <c r="Q2">
-        <v>4016.332293626521</v>
+        <v>0.001610842928333333</v>
       </c>
       <c r="R2">
-        <v>36146.99064263869</v>
+        <v>0.014497586355</v>
       </c>
       <c r="S2">
-        <v>0.054890822521192</v>
+        <v>4.624821057215529E-07</v>
       </c>
       <c r="T2">
-        <v>0.05489082252119201</v>
+        <v>4.624821057215528E-07</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>998.7379113333335</v>
+        <v>0.07287233333333333</v>
       </c>
       <c r="H3">
-        <v>2996.213734</v>
+        <v>0.218617</v>
       </c>
       <c r="I3">
-        <v>0.8754681532218018</v>
+        <v>0.0006119733110023554</v>
       </c>
       <c r="J3">
-        <v>0.8754681532218019</v>
+        <v>0.0006119733110023554</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +623,22 @@
         <v>1.203152</v>
       </c>
       <c r="O3">
-        <v>0.006252886235031953</v>
+        <v>0.01371106452749117</v>
       </c>
       <c r="P3">
-        <v>0.006252886235031953</v>
+        <v>0.01371106452749117</v>
       </c>
       <c r="Q3">
-        <v>400.5445051655076</v>
+        <v>0.02922549786488889</v>
       </c>
       <c r="R3">
-        <v>3604.900546489569</v>
+        <v>0.263029480784</v>
       </c>
       <c r="S3">
-        <v>0.005474202764489449</v>
+        <v>8.390805556255715E-06</v>
       </c>
       <c r="T3">
-        <v>0.00547420276448945</v>
+        <v>8.390805556255715E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>998.7379113333335</v>
+        <v>0.07287233333333333</v>
       </c>
       <c r="H4">
-        <v>2996.213734</v>
+        <v>0.218617</v>
       </c>
       <c r="I4">
-        <v>0.8754681532218018</v>
+        <v>0.0006119733110023554</v>
       </c>
       <c r="J4">
-        <v>0.8754681532218019</v>
+        <v>0.0006119733110023554</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>59.71602933333333</v>
+        <v>28.82699233333333</v>
       </c>
       <c r="N4">
-        <v>179.148088</v>
+        <v>86.480977</v>
       </c>
       <c r="O4">
-        <v>0.931048291061722</v>
+        <v>0.9855332128006099</v>
       </c>
       <c r="P4">
-        <v>0.931048291061722</v>
+        <v>0.9855332128006098</v>
       </c>
       <c r="Q4">
-        <v>59640.66240949341</v>
+        <v>2.100690194312111</v>
       </c>
       <c r="R4">
-        <v>536765.9616854406</v>
+        <v>18.906211748809</v>
       </c>
       <c r="S4">
-        <v>0.8151031279361204</v>
+        <v>0.0006031200233403782</v>
       </c>
       <c r="T4">
-        <v>0.8151031279361205</v>
+        <v>0.0006031200233403781</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +708,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>142.0664773333333</v>
+        <v>0.135447</v>
       </c>
       <c r="H5">
-        <v>426.199432</v>
+        <v>0.406341</v>
       </c>
       <c r="I5">
-        <v>0.1245318467781981</v>
+        <v>0.001137468024746511</v>
       </c>
       <c r="J5">
-        <v>0.1245318467781981</v>
+        <v>0.001137468024746511</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>4.021407666666667</v>
+        <v>0.022105</v>
       </c>
       <c r="N5">
-        <v>12.064223</v>
+        <v>0.066315</v>
       </c>
       <c r="O5">
-        <v>0.06269882270324605</v>
+        <v>0.0007557226718989593</v>
       </c>
       <c r="P5">
-        <v>0.06269882270324605</v>
+        <v>0.0007557226718989592</v>
       </c>
       <c r="Q5">
-        <v>571.3072211245928</v>
+        <v>0.002994055935</v>
       </c>
       <c r="R5">
-        <v>5141.764990121336</v>
+        <v>0.026946503415</v>
       </c>
       <c r="S5">
-        <v>0.007808000182054045</v>
+        <v>8.596103748610653E-07</v>
       </c>
       <c r="T5">
-        <v>0.007808000182054047</v>
+        <v>8.596103748610651E-07</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,31 +770,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>142.0664773333333</v>
+        <v>0.135447</v>
       </c>
       <c r="H6">
-        <v>426.199432</v>
+        <v>0.406341</v>
       </c>
       <c r="I6">
-        <v>0.1245318467781981</v>
+        <v>0.001137468024746511</v>
       </c>
       <c r="J6">
-        <v>0.1245318467781981</v>
+        <v>0.001137468024746511</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,22 +809,22 @@
         <v>1.203152</v>
       </c>
       <c r="O6">
-        <v>0.006252886235031953</v>
+        <v>0.01371106452749117</v>
       </c>
       <c r="P6">
-        <v>0.006252886235031953</v>
+        <v>0.01371106452749117</v>
       </c>
       <c r="Q6">
-        <v>56.97585544551822</v>
+        <v>0.05432110964800001</v>
       </c>
       <c r="R6">
-        <v>512.782699009664</v>
+        <v>0.488889986832</v>
       </c>
       <c r="S6">
-        <v>0.0007786834705425032</v>
+        <v>1.559589748525734E-05</v>
       </c>
       <c r="T6">
-        <v>0.0007786834705425034</v>
+        <v>1.559589748525734E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>142.0664773333333</v>
+        <v>0.135447</v>
       </c>
       <c r="H7">
-        <v>426.199432</v>
+        <v>0.406341</v>
       </c>
       <c r="I7">
-        <v>0.1245318467781981</v>
+        <v>0.001137468024746511</v>
       </c>
       <c r="J7">
-        <v>0.1245318467781981</v>
+        <v>0.001137468024746511</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +865,214 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.71602933333333</v>
+        <v>28.82699233333333</v>
       </c>
       <c r="N7">
-        <v>179.148088</v>
+        <v>86.480977</v>
       </c>
       <c r="O7">
-        <v>0.931048291061722</v>
+        <v>0.9855332128006099</v>
       </c>
       <c r="P7">
-        <v>0.931048291061722</v>
+        <v>0.9855332128006098</v>
       </c>
       <c r="Q7">
-        <v>8483.645927720667</v>
+        <v>3.904529630573</v>
       </c>
       <c r="R7">
-        <v>76352.81334948602</v>
+        <v>35.140766675157</v>
       </c>
       <c r="S7">
-        <v>0.1159451631256016</v>
+        <v>0.001121012516886393</v>
       </c>
       <c r="T7">
-        <v>0.1159451631256016</v>
+        <v>0.001121012516886393</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>118.8693136666667</v>
+      </c>
+      <c r="H8">
+        <v>356.607941</v>
+      </c>
+      <c r="I8">
+        <v>0.9982505586642512</v>
+      </c>
+      <c r="J8">
+        <v>0.9982505586642512</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.022105</v>
+      </c>
+      <c r="N8">
+        <v>0.066315</v>
+      </c>
+      <c r="O8">
+        <v>0.0007557226718989593</v>
+      </c>
+      <c r="P8">
+        <v>0.0007557226718989592</v>
+      </c>
+      <c r="Q8">
+        <v>2.627606178601666</v>
+      </c>
+      <c r="R8">
+        <v>23.648455607415</v>
+      </c>
+      <c r="S8">
+        <v>0.0007544005794183768</v>
+      </c>
+      <c r="T8">
+        <v>0.0007544005794183767</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>118.8693136666667</v>
+      </c>
+      <c r="H9">
+        <v>356.607941</v>
+      </c>
+      <c r="I9">
+        <v>0.9982505586642512</v>
+      </c>
+      <c r="J9">
+        <v>0.9982505586642512</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.4010506666666667</v>
+      </c>
+      <c r="N9">
+        <v>1.203152</v>
+      </c>
+      <c r="O9">
+        <v>0.01371106452749117</v>
+      </c>
+      <c r="P9">
+        <v>0.01371106452749117</v>
+      </c>
+      <c r="Q9">
+        <v>47.67261749222578</v>
+      </c>
+      <c r="R9">
+        <v>429.053557430032</v>
+      </c>
+      <c r="S9">
+        <v>0.01368707782444965</v>
+      </c>
+      <c r="T9">
+        <v>0.01368707782444965</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>118.8693136666667</v>
+      </c>
+      <c r="H10">
+        <v>356.607941</v>
+      </c>
+      <c r="I10">
+        <v>0.9982505586642512</v>
+      </c>
+      <c r="J10">
+        <v>0.9982505586642512</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>28.82699233333333</v>
+      </c>
+      <c r="N10">
+        <v>86.480977</v>
+      </c>
+      <c r="O10">
+        <v>0.9855332128006099</v>
+      </c>
+      <c r="P10">
+        <v>0.9855332128006098</v>
+      </c>
+      <c r="Q10">
+        <v>3426.644793737595</v>
+      </c>
+      <c r="R10">
+        <v>30839.80314363835</v>
+      </c>
+      <c r="S10">
+        <v>0.9838090802603832</v>
+      </c>
+      <c r="T10">
+        <v>0.9838090802603831</v>
       </c>
     </row>
   </sheetData>
